--- a/CIS Assessor Remote/src/win10_v9.xlsx
+++ b/CIS Assessor Remote/src/win10_v9.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Remote/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1D8B04AFBE81BBAF7F4DD1ADC71592C763BD67CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B96843-8792-45E0-9234-C3DB4DA3D926}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1D8B04AFBE81BBAF7F4DD1ADC71592C763BD67CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987EBEB2-C9E4-4CA4-96A8-0591D01FFD1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$380</definedName>
@@ -4237,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67">
         <v>1</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70">
         <v>1</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71">
         <v>1</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77">
         <v>1</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78">
         <v>1</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79">
         <v>1</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81">
         <v>1</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86">
         <v>1</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88">
         <v>1</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91">
         <v>1</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96">
         <v>1</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98">
         <v>1</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100">
         <v>1</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101">
         <v>1</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102">
         <v>1</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103">
         <v>1</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111">
         <v>1</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112">
         <v>1</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113">
         <v>1</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114">
         <v>1</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115">
         <v>1</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116">
         <v>1</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117">
         <v>1</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118">
         <v>1</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119">
         <v>1</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120">
         <v>1</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121">
         <v>1</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122">
         <v>1</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123">
         <v>1</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124">
         <v>1</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126">
         <v>1</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127">
         <v>1</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132">
         <v>1</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133">
         <v>1</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134">
         <v>1</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135">
         <v>1</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136">
         <v>1</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137">
         <v>1</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138">
         <v>1</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139">
         <v>1</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140">
         <v>1</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141">
         <v>1</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142">
         <v>1</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143">
         <v>1</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144">
         <v>1</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145">
         <v>1</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146">
         <v>1</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147">
         <v>1</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148">
         <v>1</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149">
         <v>1</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150">
         <v>1</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151">
         <v>1</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152">
         <v>1</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153">
         <v>1</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155">
         <v>1</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156">
         <v>1</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157">
         <v>1</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158">
         <v>1</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187">
         <v>1</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188">
         <v>1</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189">
         <v>1</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190">
         <v>1</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191">
         <v>1</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192">
         <v>1</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193">
         <v>1</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194">
         <v>1</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195">
         <v>1</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196">
         <v>1</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197">
         <v>1</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198">
         <v>1</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199">
         <v>1</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200">
         <v>1</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201">
         <v>1</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202">
         <v>1</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203">
         <v>1</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204">
         <v>1</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205">
         <v>1</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206">
         <v>1</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207">
         <v>1</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208">
         <v>1</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209">
         <v>1</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210">
         <v>1</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211">
         <v>1</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212">
         <v>1</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213">
         <v>1</v>
       </c>
@@ -8801,7 +8802,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214">
         <v>1</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215">
         <v>1</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216">
         <v>1</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217">
         <v>1</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218">
         <v>1</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219">
         <v>1</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220">
         <v>1</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221">
         <v>1</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222">
         <v>1</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223">
         <v>1</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224">
         <v>1</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225">
         <v>1</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226">
         <v>1</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227">
         <v>1</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228">
         <v>1</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229">
         <v>1</v>
       </c>
@@ -9169,7 +9170,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230">
         <v>1</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231">
         <v>1</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232">
         <v>1</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233">
         <v>1</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234">
         <v>1</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235">
         <v>1</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236">
         <v>1</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237">
         <v>1</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238">
         <v>1</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239">
         <v>1</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240">
         <v>1</v>
       </c>
@@ -9442,7 +9443,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242">
         <v>1</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243">
         <v>1</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244">
         <v>1</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245">
         <v>1</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246">
         <v>1</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247">
         <v>1</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248">
         <v>1</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249">
         <v>1</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250">
         <v>1</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251">
         <v>1</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252">
         <v>1</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253">
         <v>1</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254">
         <v>1</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255">
         <v>1</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256">
         <v>1</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257">
         <v>1</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258">
         <v>1</v>
       </c>
@@ -9833,7 +9834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259">
         <v>1</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260">
         <v>1</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261">
         <v>1</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262">
         <v>1</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263">
         <v>1</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264">
         <v>1</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265">
         <v>1</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266">
         <v>1</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267">
         <v>1</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268">
         <v>1</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269">
         <v>1</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270">
         <v>1</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271">
         <v>1</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272">
         <v>1</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273">
         <v>1</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274">
         <v>1</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275">
         <v>1</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276">
         <v>1</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277">
         <v>1</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278">
         <v>1</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279">
         <v>1</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280">
         <v>1</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281">
         <v>1</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282">
         <v>1</v>
       </c>
@@ -10385,7 +10386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283">
         <v>1</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284">
         <v>1</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285">
         <v>1</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286">
         <v>1</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287">
         <v>1</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288">
         <v>1</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289">
         <v>1</v>
       </c>
@@ -10546,7 +10547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290">
         <v>1</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291">
         <v>1</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292">
         <v>1</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293">
         <v>1</v>
       </c>
@@ -10638,7 +10639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294">
         <v>1</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296">
         <v>1</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297">
         <v>1</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298">
         <v>1</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299">
         <v>1</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300">
         <v>1</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301">
         <v>1</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303">
         <v>1</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304">
         <v>1</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305">
         <v>1</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306">
         <v>1</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307">
         <v>1</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308">
         <v>1</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309">
         <v>1</v>
       </c>
@@ -11006,7 +11007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310">
         <v>1</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311">
         <v>1</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312">
         <v>1</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313">
         <v>1</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314">
         <v>1</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315">
         <v>1</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316">
         <v>1</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317">
         <v>1</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318">
         <v>1</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319">
         <v>1</v>
       </c>
@@ -11236,7 +11237,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320">
         <v>1</v>
       </c>
@@ -11259,7 +11260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321">
         <v>1</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322">
         <v>1</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323">
         <v>1</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324">
         <v>1</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325">
         <v>1</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1">
       <c r="A326">
         <v>1</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327">
         <v>1</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328">
         <v>1</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329">
         <v>1</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330">
         <v>1</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331">
         <v>1</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332">
         <v>1</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333">
         <v>1</v>
       </c>
@@ -11558,7 +11559,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334">
         <v>1</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335">
         <v>1</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336">
         <v>1</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" hidden="1">
       <c r="A337">
         <v>1</v>
       </c>
@@ -11650,7 +11651,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" hidden="1">
       <c r="A338">
         <v>1</v>
       </c>
@@ -11673,7 +11674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" hidden="1">
       <c r="A339">
         <v>1</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" hidden="1">
       <c r="A340">
         <v>1</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" hidden="1">
       <c r="A341">
         <v>1</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" hidden="1">
       <c r="A342">
         <v>1</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" hidden="1">
       <c r="A343">
         <v>1</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" hidden="1">
       <c r="A344">
         <v>1</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" hidden="1">
       <c r="A345">
         <v>1</v>
       </c>
@@ -11834,7 +11835,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" hidden="1">
       <c r="A346">
         <v>1</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" hidden="1">
       <c r="A347">
         <v>1</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" hidden="1">
       <c r="A348">
         <v>1</v>
       </c>
@@ -11903,7 +11904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" hidden="1">
       <c r="A349">
         <v>1</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" hidden="1">
       <c r="A350">
         <v>1</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" hidden="1">
       <c r="A351">
         <v>1</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" hidden="1">
       <c r="A352">
         <v>1</v>
       </c>
@@ -11995,7 +11996,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1">
       <c r="A353">
         <v>1</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1">
       <c r="A354">
         <v>1</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1">
       <c r="A355">
         <v>1</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1">
       <c r="A356">
         <v>1</v>
       </c>
@@ -12087,7 +12088,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1">
       <c r="A357">
         <v>1</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358">
         <v>1</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359">
         <v>1</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360">
         <v>1</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" hidden="1">
       <c r="A361">
         <v>1</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1">
       <c r="A362">
         <v>1</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1">
       <c r="A363">
         <v>1</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1">
       <c r="A364">
         <v>1</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1">
       <c r="A365">
         <v>1</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1">
       <c r="A366">
         <v>1</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1">
       <c r="A367">
         <v>1</v>
       </c>
@@ -12340,7 +12341,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1">
       <c r="A368">
         <v>1</v>
       </c>
@@ -12363,7 +12364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369">
         <v>1</v>
       </c>
@@ -12386,7 +12387,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370">
         <v>1</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371">
         <v>1</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372">
         <v>1</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373">
         <v>1</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374">
         <v>1</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375">
         <v>1</v>
       </c>
@@ -12524,7 +12525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376">
         <v>1</v>
       </c>
@@ -12547,7 +12548,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377">
         <v>1</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378">
         <v>1</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379">
         <v>1</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380">
         <v>1</v>
       </c>
@@ -12643,10 +12644,22 @@
   <autoFilter ref="A1:I380" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="REGISTRY_SETTING"/>
+        <filter val="LOCKOUT_POLICY"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252EBE39-F973-492C-B2CC-44C4B69EFF71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>